--- a/DAWN.xlsx
+++ b/DAWN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B778FB-5E33-4485-A7B7-FDDA5E9F9116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B74F9F-DEC3-466B-B6F7-126C5F776362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35970" yWindow="330" windowWidth="33540" windowHeight="19830" activeTab="1" xr2:uid="{17EEF4A8-A70E-4960-9A9D-BF93444826D6}"/>
+    <workbookView xWindow="46970" yWindow="6760" windowWidth="28830" windowHeight="13750" xr2:uid="{17EEF4A8-A70E-4960-9A9D-BF93444826D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={BB6259C7-497C-48B2-93A2-5A35305B0FBE}</author>
+  </authors>
+  <commentList>
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{BB6259C7-497C-48B2-93A2-5A35305B0FBE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    156m consensus</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Price</t>
   </si>
@@ -124,13 +142,46 @@
   </si>
   <si>
     <t>NPV</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Prescriptions</t>
+  </si>
+  <si>
+    <t>FIREFLY-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -149,6 +200,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -259,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -268,8 +325,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -279,6 +335,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -297,6 +365,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{930EBA52-190A-489A-98CC-DFF09D52D5F8}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -614,119 +688,118 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N9" dT="2025-05-05T18:48:18.74" personId="{930EBA52-190A-489A-98CC-DFF09D52D5F8}" id="{BB6259C7-497C-48B2-93A2-5A35305B0FBE}">
+    <text>156m consensus</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222FCD43-A822-414C-A059-E3F3D300EBC3}">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:L9"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>45405</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="7"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>87.760456000000005</v>
+        <v>101.354</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>1258.48493904</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>781.43934000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="7"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="2">
-        <f>239.616+122.25</f>
-        <v>361.86599999999999</v>
+        <v>531</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="7"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -734,23 +807,28 @@
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>896.61893903999999</v>
+        <v>250.43934000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -759,435 +837,742 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF6450E-5D23-47E7-99CD-B49E7DF2B9B2}">
-  <dimension ref="A1:S17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF6450E-5D23-47E7-99CD-B49E7DF2B9B2}">
+  <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2">
         <v>2024</v>
       </c>
-      <c r="D2">
-        <f>+C2+1</f>
+      <c r="N2">
+        <f t="shared" ref="N2:AC2" si="0">+M2+1</f>
         <v>2025</v>
       </c>
-      <c r="E2">
-        <f>+D2+1</f>
+      <c r="O2">
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="F2">
-        <f>+E2+1</f>
+      <c r="P2">
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="G2">
-        <f>+F2+1</f>
+      <c r="Q2">
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="H2">
-        <f>+G2+1</f>
+      <c r="R2">
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="I2">
-        <f>+H2+1</f>
+      <c r="S2">
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="J2">
-        <f>+I2+1</f>
+      <c r="T2">
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="K2">
-        <f>+J2+1</f>
+      <c r="U2">
+        <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="L2">
-        <f>+K2+1</f>
+      <c r="V2">
+        <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="M2">
-        <f>+L2+1</f>
+      <c r="W2">
+        <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="N2">
-        <f>+M2+1</f>
+      <c r="X2">
+        <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="O2">
-        <f>+N2+1</f>
+      <c r="Y2">
+        <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="P2">
-        <f>+O2+1</f>
+      <c r="Z2">
+        <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="Q2">
-        <f>+P2+1</f>
+      <c r="AA2">
+        <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="R2">
-        <f>+Q2+1</f>
+      <c r="AB2">
+        <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="S2">
-        <f>+R2+1</f>
+      <c r="AC2">
+        <f t="shared" si="0"/>
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1">
+        <v>619</v>
+      </c>
+      <c r="F3" s="1">
+        <f>1647-E3-D3</f>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0.4</v>
-      </c>
-      <c r="D3">
-        <v>0.4</v>
-      </c>
-      <c r="E3">
-        <v>0.4</v>
-      </c>
-      <c r="F3">
-        <v>0.4</v>
-      </c>
-      <c r="G3">
-        <v>0.4</v>
-      </c>
-      <c r="H3">
-        <v>0.4</v>
-      </c>
-      <c r="I3">
-        <v>0.4</v>
-      </c>
-      <c r="J3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="M4">
+        <v>0.2</v>
+      </c>
+      <c r="N4">
+        <v>0.2</v>
+      </c>
+      <c r="O4">
+        <v>0.2</v>
+      </c>
+      <c r="P4">
+        <v>0.2</v>
+      </c>
+      <c r="Q4">
+        <v>0.2</v>
+      </c>
+      <c r="R4">
+        <v>0.2</v>
+      </c>
+      <c r="S4">
+        <v>0.2</v>
+      </c>
+      <c r="T4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
-        <f>C8/C3</f>
-        <v>75.5</v>
-      </c>
-      <c r="D4">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16">
+        <v>280</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="2"/>
+      <c r="M5" s="2">
+        <f>M9/M4</f>
+        <v>151</v>
+      </c>
+      <c r="N5">
         <v>250</v>
       </c>
-      <c r="E4">
+      <c r="O5">
         <v>400</v>
       </c>
-      <c r="F4">
+      <c r="P5">
         <v>500</v>
       </c>
-      <c r="G4">
+      <c r="Q5">
         <v>600</v>
       </c>
-      <c r="H4">
+      <c r="R5">
         <v>650</v>
       </c>
-      <c r="I4">
+      <c r="S5">
         <v>700</v>
       </c>
-      <c r="J4">
+      <c r="T5">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C5" s="2"/>
-      <c r="D5">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="D6">
-        <f>+D5*0.03*0.75</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7">
+        <f>+N6*0.03*0.2</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E9" s="17">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F9" s="17">
+        <v>29</v>
+      </c>
+      <c r="G9" s="17">
+        <f>+F9+5</f>
+        <v>34</v>
+      </c>
+      <c r="H9" s="17">
+        <f>+G9+5</f>
+        <v>39</v>
+      </c>
+      <c r="I9" s="17">
+        <f>+H9+5</f>
+        <v>44</v>
+      </c>
+      <c r="J9" s="17">
+        <f>+I9+5</f>
+        <v>49</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="M9" s="4">
         <f>8.2+10+12</f>
         <v>30.2</v>
       </c>
-      <c r="D8" s="3">
-        <f>120+225</f>
-        <v>345</v>
-      </c>
-      <c r="E8" s="3">
-        <f>D8+125</f>
-        <v>470</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" ref="F8:I8" si="0">E8+125</f>
-        <v>595</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="0"/>
-        <v>845</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>970</v>
-      </c>
-      <c r="J8" s="3">
-        <f>+J4*J3</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="N9" s="4">
+        <f>SUM(G9:J9)</f>
+        <v>166</v>
+      </c>
+      <c r="O9" s="4">
+        <f>N9+80</f>
+        <v>246</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" ref="P9:S9" si="1">O9+80</f>
+        <v>326</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="1"/>
+        <v>406</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="1"/>
+        <v>486</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="1"/>
+        <v>566</v>
+      </c>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2">
-        <f>+C8*0.01</f>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1.59</v>
+      </c>
+      <c r="F10" s="16">
+        <f>5.279-E10-D10-C10</f>
+        <v>2.9820000000000002</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="2">
+        <f>+M9*0.01</f>
         <v>0.30199999999999999</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" ref="D9:J9" si="1">+D8*0.01</f>
-        <v>3.45</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>4.7</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="1"/>
-        <v>5.95</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="1"/>
-        <v>7.2</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="1"/>
-        <v>9.7000000000000011</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="N10" s="2">
+        <f t="shared" ref="N10:T10" si="2">+N9*0.01</f>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="2"/>
+        <v>2.46</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2600000000000002</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="2"/>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="2"/>
+        <v>5.66</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2">
-        <f>+C8-C9</f>
+      <c r="C11" s="16">
+        <f>+C9-C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <f>+D9-D10</f>
+        <v>7.4929999999999994</v>
+      </c>
+      <c r="E11" s="16">
+        <f>+E9-E10</f>
+        <v>18.510000000000002</v>
+      </c>
+      <c r="F11" s="16">
+        <f>+F9-F10</f>
+        <v>26.018000000000001</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="2"/>
+      <c r="M11" s="2">
+        <f>+M9-M10</f>
         <v>29.898</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:J10" si="2">+D8-D9</f>
-        <v>341.55</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="2"/>
-        <v>465.3</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="2"/>
-        <v>589.04999999999995</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="2"/>
-        <v>712.8</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="2"/>
-        <v>836.55</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="2"/>
-        <v>960.3</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="2"/>
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="N11" s="2">
+        <f t="shared" ref="N11:T11" si="3">+N9-N10</f>
+        <v>164.34</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="3"/>
+        <v>243.54</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="3"/>
+        <v>322.74</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="3"/>
+        <v>401.94</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="3"/>
+        <v>481.14</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="3"/>
+        <v>560.34</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="16">
+        <v>26.556999999999999</v>
+      </c>
+      <c r="D12" s="16">
+        <v>30.186</v>
+      </c>
+      <c r="E12" s="16">
+        <v>28.972000000000001</v>
+      </c>
+      <c r="F12" s="16">
+        <f>115.45-E12-D12-C12</f>
+        <v>29.73500000000001</v>
+      </c>
+      <c r="M12">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="N12">
         <v>10</v>
       </c>
-      <c r="E11">
+      <c r="O12">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="P12">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="Q12">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="R12">
         <v>10</v>
       </c>
-      <c r="I11">
+      <c r="S12">
         <v>10</v>
       </c>
-      <c r="J11">
+      <c r="T12">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="16">
+        <v>40.21</v>
+      </c>
+      <c r="D13" s="16">
+        <v>92.105999999999995</v>
+      </c>
+      <c r="E13" s="16">
+        <v>33.563000000000002</v>
+      </c>
+      <c r="F13" s="16">
+        <f>227.702-E13-D13-C13</f>
+        <v>61.823000000000015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2">
-        <f>+C10-C11</f>
+      <c r="C14" s="16">
+        <f>+C13+C12</f>
+        <v>66.766999999999996</v>
+      </c>
+      <c r="D14" s="16">
+        <f>+D13+D12</f>
+        <v>122.292</v>
+      </c>
+      <c r="E14" s="16">
+        <f>+E13+E12</f>
+        <v>62.535000000000004</v>
+      </c>
+      <c r="F14" s="16">
+        <f>+F13+F12</f>
+        <v>91.558000000000021</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="2"/>
+      <c r="M14" s="2">
+        <f>+M11-M12</f>
         <v>24.898</v>
       </c>
-      <c r="D12" s="2">
-        <f>+D10-D11</f>
-        <v>331.55</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" ref="E12:J12" si="3">+E10-E11</f>
-        <v>455.3</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="3"/>
-        <v>579.04999999999995</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="3"/>
-        <v>702.8</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="3"/>
-        <v>826.55</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="3"/>
-        <v>950.3</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="3"/>
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="N14" s="2">
+        <f>+N11-N12</f>
+        <v>154.34</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" ref="O14:T14" si="4">+O11-O12</f>
+        <v>233.54</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="4"/>
+        <v>312.74</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="4"/>
+        <v>391.94</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="4"/>
+        <v>471.14</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="4"/>
+        <v>550.34</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2">
-        <f>+C12*0.1</f>
+      <c r="C15" s="16">
+        <f>+C11-C14</f>
+        <v>-66.766999999999996</v>
+      </c>
+      <c r="D15" s="16">
+        <f>+D11-D14</f>
+        <v>-114.79900000000001</v>
+      </c>
+      <c r="E15" s="16">
+        <f>+E11-E14</f>
+        <v>-44.025000000000006</v>
+      </c>
+      <c r="F15" s="16">
+        <f>+F11-F14</f>
+        <v>-65.54000000000002</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2">
+        <f t="shared" ref="M15:T15" si="5">+M14*0.1</f>
         <v>2.4898000000000002</v>
       </c>
-      <c r="D13" s="2">
-        <f>+D12*0.1</f>
-        <v>33.155000000000001</v>
-      </c>
-      <c r="E13" s="2">
-        <f>+E12*0.1</f>
-        <v>45.53</v>
-      </c>
-      <c r="F13" s="2">
-        <f>+F12*0.1</f>
-        <v>57.905000000000001</v>
-      </c>
-      <c r="G13" s="2">
-        <f>+G12*0.1</f>
-        <v>70.28</v>
-      </c>
-      <c r="H13" s="2">
-        <f>+H12*0.1</f>
-        <v>82.655000000000001</v>
-      </c>
-      <c r="I13" s="2">
-        <f>+I12*0.1</f>
-        <v>95.03</v>
-      </c>
-      <c r="J13" s="2">
-        <f>+J12*0.1</f>
-        <v>1.4800000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="N15" s="2">
+        <f t="shared" si="5"/>
+        <v>15.434000000000001</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="5"/>
+        <v>23.353999999999999</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="5"/>
+        <v>31.274000000000001</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="5"/>
+        <v>39.194000000000003</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="5"/>
+        <v>47.114000000000004</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="5"/>
+        <v>55.034000000000006</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2">
-        <f>+C12-C13</f>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="2"/>
+      <c r="M16" s="2">
+        <f>+M14-M15</f>
         <v>22.408200000000001</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:J14" si="4">+D12-D13</f>
-        <v>298.39499999999998</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="4"/>
-        <v>409.77</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="4"/>
-        <v>521.14499999999998</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="4"/>
-        <v>632.52</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="4"/>
-        <v>743.89499999999998</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="4"/>
-        <v>855.27</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="4"/>
-        <v>13.32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="N16" s="2">
+        <f t="shared" ref="N16:T16" si="6">+N14-N15</f>
+        <v>138.90600000000001</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="6"/>
+        <v>210.18599999999998</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="6"/>
+        <v>281.46600000000001</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="6"/>
+        <v>352.74599999999998</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="6"/>
+        <v>424.02599999999995</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="6"/>
+        <v>495.30600000000004</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="6"/>
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="19">
+        <f>+C16/C18</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
+        <f>+D16/D18</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <f>+E16/E18</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <f>+F16/F18</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16">
+        <v>86.679282000000001</v>
+      </c>
+      <c r="D18" s="16">
+        <v>87.121309999999994</v>
+      </c>
+      <c r="E18" s="16">
+        <v>96.936999999999998</v>
+      </c>
+      <c r="F18" s="16">
+        <v>93.234195</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="14"/>
+      <c r="V20" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="15">
+      <c r="W20" s="14">
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="2"/>
+      <c r="V21" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2">
-        <f>NPV(C16,D14:J14)</f>
-        <v>2559.2458870056253</v>
+      <c r="W21" s="2">
+        <f>NPV(W20,N16:T16)</f>
+        <v>1389.6189710958556</v>
       </c>
     </row>
   </sheetData>
@@ -1195,5 +1580,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{83237F3A-3469-494A-9311-28BDE345A852}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>